--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE2CF63-5E18-4D5A-BC2A-AF310386592C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476578B-7CBF-4BA5-8059-77031D1C068D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12600" activeTab="1" xr2:uid="{01539A8D-3184-427F-BFCD-5BC8845E97D5}"/>
+    <workbookView xWindow="2850" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{01539A8D-3184-427F-BFCD-5BC8845E97D5}"/>
   </bookViews>
   <sheets>
     <sheet name="BWCategories" sheetId="3" r:id="rId1"/>
     <sheet name="BWvsAgeGroup" sheetId="2" r:id="rId2"/>
     <sheet name="AgeGroupTranslations" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BWvsAgeGroup!$G$1:$G$50</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="83">
   <si>
     <t>code</t>
   </si>
@@ -267,13 +270,28 @@
   </si>
   <si>
     <t>IWF</t>
+  </si>
+  <si>
+    <t>WR_SR</t>
+  </si>
+  <si>
+    <t>WR_JR</t>
+  </si>
+  <si>
+    <t>WR_YTH</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +309,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,16 +357,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -653,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3C3A3-1F2A-4CC6-B0D9-4ABAF6EBF7C5}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,8 +700,18 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -682,8 +721,11 @@
       <c r="C2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -693,8 +735,11 @@
       <c r="C3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -705,7 +750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -716,7 +761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -726,8 +771,14 @@
       <c r="C6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>294</v>
+      </c>
+      <c r="E6">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -737,8 +788,14 @@
       <c r="C7">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>318</v>
+      </c>
+      <c r="E7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -748,8 +805,14 @@
       <c r="C8">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>339</v>
+      </c>
+      <c r="E8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -759,8 +822,14 @@
       <c r="C9">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>363</v>
+      </c>
+      <c r="E9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -770,8 +839,14 @@
       <c r="C10">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>378</v>
+      </c>
+      <c r="E10">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -781,8 +856,14 @@
       <c r="C11">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>387</v>
+      </c>
+      <c r="E11">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -792,8 +873,14 @@
       <c r="C12">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>416</v>
+      </c>
+      <c r="E12">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -803,8 +890,14 @@
       <c r="C13">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>412</v>
+      </c>
+      <c r="E13">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -814,8 +907,14 @@
       <c r="C14">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>435</v>
+      </c>
+      <c r="E14">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -825,8 +924,14 @@
       <c r="C15">
         <v>999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>484</v>
+      </c>
+      <c r="E15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -837,7 +942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -848,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -858,8 +963,11 @@
       <c r="C18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -869,8 +977,14 @@
       <c r="C19">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>210</v>
+      </c>
+      <c r="E19">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -880,8 +994,14 @@
       <c r="C20">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>232</v>
+      </c>
+      <c r="E20">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -891,8 +1011,14 @@
       <c r="C21">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>237</v>
+      </c>
+      <c r="E21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -902,8 +1028,14 @@
       <c r="C22">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>254</v>
+      </c>
+      <c r="E22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -913,8 +1045,14 @@
       <c r="C23">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>267</v>
+      </c>
+      <c r="E23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -924,8 +1062,14 @@
       <c r="C24">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>274</v>
+      </c>
+      <c r="E24">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -935,8 +1079,14 @@
       <c r="C25">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>283</v>
+      </c>
+      <c r="E25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -946,8 +1096,14 @@
       <c r="C26">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>294</v>
+      </c>
+      <c r="E26">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -957,8 +1113,18 @@
       <c r="C27">
         <v>999</v>
       </c>
+      <c r="D27">
+        <v>330</v>
+      </c>
+      <c r="E27">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" location="Men" display="https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting - Men" xr:uid="{1118ABB4-A278-4D7E-B5EA-93AF52313A8B}"/>
+    <hyperlink ref="H2" r:id="rId2" location="Men" display="https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting - Men" xr:uid="{00523A9F-3008-463C-9B7D-A4F351E39FDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -970,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,8 +1146,7 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="20" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1285,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="F7">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1912,7 +2077,7 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1969,7 +2134,7 @@
         <v>70</v>
       </c>
       <c r="F19">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2233,7 +2398,7 @@
         <v>15</v>
       </c>
       <c r="F24">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2290,7 +2455,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2338,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -3232,7 +3397,7 @@
         <v>80</v>
       </c>
       <c r="F43">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -3481,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="F48">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -3535,7 +3700,7 @@
         <v>15</v>
       </c>
       <c r="F49">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -3580,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -3629,6 +3794,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G50" xr:uid="{B751848B-6243-4CCE-9281-D58686A89242}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E476578B-7CBF-4BA5-8059-77031D1C068D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFD139-47B2-4494-8146-5070B3B9DD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2850" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{01539A8D-3184-427F-BFCD-5BC8845E97D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="84">
   <si>
     <t>code</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>M999 is the superheavyweight class for each age group</t>
   </si>
 </sst>
 </file>
@@ -684,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3C3A3-1F2A-4CC6-B0D9-4ABAF6EBF7C5}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,6 +763,9 @@
       <c r="C5">
         <v>49</v>
       </c>
+      <c r="F5">
+        <v>221</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -777,6 +783,9 @@
       <c r="E6">
         <v>264</v>
       </c>
+      <c r="F6">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -794,6 +803,9 @@
       <c r="E7">
         <v>293</v>
       </c>
+      <c r="F7">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -811,6 +823,9 @@
       <c r="E8">
         <v>328</v>
       </c>
+      <c r="F8">
+        <v>299</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -828,6 +843,9 @@
       <c r="E9">
         <v>347</v>
       </c>
+      <c r="F9">
+        <v>306</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -845,6 +863,9 @@
       <c r="E10">
         <v>372</v>
       </c>
+      <c r="F10">
+        <v>327</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -862,6 +883,9 @@
       <c r="E11">
         <v>371</v>
       </c>
+      <c r="F11">
+        <v>357</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -879,6 +903,9 @@
       <c r="E12">
         <v>397</v>
       </c>
+      <c r="F12">
+        <v>354</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -896,6 +923,9 @@
       <c r="E13">
         <v>392</v>
       </c>
+      <c r="F13">
+        <v>377</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -930,6 +960,12 @@
       <c r="E15">
         <v>432</v>
       </c>
+      <c r="F15">
+        <v>396</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -942,7 +978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -952,8 +988,11 @@
       <c r="C17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -966,8 +1005,11 @@
       <c r="E18">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -983,8 +1025,11 @@
       <c r="E19">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1000,8 +1045,11 @@
       <c r="E20">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1017,8 +1065,11 @@
       <c r="E21">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1034,8 +1085,11 @@
       <c r="E22">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1051,8 +1105,11 @@
       <c r="E23">
         <v>252</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1068,8 +1125,11 @@
       <c r="E24">
         <v>259</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1085,8 +1145,11 @@
       <c r="E25">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1166,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1118,6 +1181,9 @@
       </c>
       <c r="E27">
         <v>332</v>
+      </c>
+      <c r="F27">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1126,6 +1192,7 @@
     <hyperlink ref="H2" r:id="rId2" location="Men" display="https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting - Men" xr:uid="{00523A9F-3008-463C-9B7D-A4F351E39FDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1136,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,6 +3864,7 @@
   <autoFilter ref="G1:G50" xr:uid="{B751848B-6243-4CCE-9281-D58686A89242}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3804,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D42A18-F9BA-4DF8-9234-51A2A08C5F2E}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4366,5 +4434,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03A7030-C4F9-4BCF-A44E-A4DC3E216A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEE7BD9-765C-4B63-AA69-E1E9B3052985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
     <sheet name="BW vs AgeGroups" sheetId="2" r:id="rId2"/>
-    <sheet name="AgeGroupTranslations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="79">
   <si>
     <t>code</t>
   </si>
@@ -39,78 +38,159 @@
     <t>en</t>
   </si>
   <si>
-    <t>fr</t>
+    <t>WR_SR</t>
+  </si>
+  <si>
+    <t>WR_JR</t>
+  </si>
+  <si>
+    <t>WR_YTH</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>#default bw categories</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>U10</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F999</t>
+  </si>
+  <si>
     <t>U13</t>
   </si>
   <si>
-    <t>WR_SR</t>
-  </si>
-  <si>
-    <t>WR_JR</t>
-  </si>
-  <si>
-    <t>WR_YTH</t>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F71</t>
   </si>
   <si>
     <t>U15</t>
   </si>
   <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
     <t>U17</t>
   </si>
   <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
     <t>U20</t>
   </si>
   <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M89</t>
+  </si>
+  <si>
+    <t>M96</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M999</t>
+  </si>
+  <si>
+    <t>M999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
     <t>O21</t>
   </si>
   <si>
     <t>SR</t>
   </si>
   <si>
+    <t>F999 is always used as the last category in an age group</t>
+  </si>
+  <si>
     <t>F30</t>
   </si>
   <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>F40</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>F45</t>
-  </si>
-  <si>
-    <t>#default bw categories</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>MASTERS</t>
   </si>
   <si>
     <t>F50</t>
   </si>
   <si>
-    <t>F55</t>
-  </si>
-  <si>
     <t>F60</t>
   </si>
   <si>
@@ -129,19 +209,16 @@
     <t>F70+</t>
   </si>
   <si>
+    <t>Y-OLY</t>
+  </si>
+  <si>
+    <t>OLY</t>
+  </si>
+  <si>
     <t>KIDS</t>
   </si>
   <si>
-    <t>MINI</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>IWF</t>
   </si>
   <si>
     <t>YTH</t>
@@ -150,136 +227,37 @@
     <t>YOUTH</t>
   </si>
   <si>
-    <t>JEUNESSE</t>
-  </si>
-  <si>
-    <t>Y-OLY</t>
-  </si>
-  <si>
-    <t>F999</t>
-  </si>
-  <si>
-    <t>OLY-J</t>
-  </si>
-  <si>
     <t>JR</t>
   </si>
   <si>
-    <t>OLY</t>
-  </si>
-  <si>
     <t>ALL</t>
   </si>
   <si>
-    <t>TOUS</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
-    <t>F49</t>
-  </si>
-  <si>
-    <t>F59</t>
-  </si>
-  <si>
-    <t>F64</t>
-  </si>
-  <si>
-    <t>F71</t>
+    <t>DEFAULT</t>
   </si>
   <si>
     <t>M30</t>
   </si>
   <si>
-    <t>M45</t>
-  </si>
-  <si>
     <t>M50</t>
   </si>
   <si>
-    <t>M49</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
     <t>M60</t>
   </si>
   <si>
-    <t>M73</t>
-  </si>
-  <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>M89</t>
-  </si>
-  <si>
     <t>M65</t>
   </si>
   <si>
-    <t>M96</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M109</t>
-  </si>
-  <si>
     <t>M70</t>
   </si>
   <si>
-    <t>M999</t>
-  </si>
-  <si>
-    <t>M999 is always used as the last category in an age group</t>
-  </si>
-  <si>
     <t>M75</t>
   </si>
   <si>
-    <t>F76</t>
-  </si>
-  <si>
-    <t>F81</t>
-  </si>
-  <si>
     <t>M80+</t>
   </si>
   <si>
     <t>M80</t>
-  </si>
-  <si>
-    <t>F87</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>\u0020</t>
-  </si>
-  <si>
-    <t>F999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t>MASTERS</t>
-  </si>
-  <si>
-    <t>IWF</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -321,7 +299,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +318,6 @@
         <bgColor rgb="FF8EA9DB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -359,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -370,7 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,22 +583,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>35</v>
@@ -635,16 +606,16 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="H2" s="10" t="s">
-        <v>37</v>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>40</v>
@@ -652,16 +623,16 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="H3" s="10" t="s">
-        <v>51</v>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>45</v>
@@ -673,10 +644,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>49</v>
@@ -689,10 +660,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>55</v>
@@ -709,10 +680,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>61</v>
@@ -729,10 +700,10 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>67</v>
@@ -749,10 +720,10 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>73</v>
@@ -769,10 +740,10 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>81</v>
@@ -789,10 +760,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>89</v>
@@ -809,10 +780,10 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <v>96</v>
@@ -829,10 +800,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
         <v>102</v>
@@ -849,10 +820,10 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>109</v>
@@ -867,10 +838,10 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>999</v>
@@ -885,15 +856,15 @@
         <v>396</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5">
         <v>35</v>
@@ -904,10 +875,10 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>40</v>
@@ -923,7 +894,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" s="5">
         <v>45</v>
@@ -938,10 +909,10 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C19" s="5">
         <v>49</v>
@@ -958,10 +929,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
         <v>55</v>
@@ -978,10 +949,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
         <v>59</v>
@@ -998,10 +969,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
         <v>64</v>
@@ -1016,12 +987,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5">
         <v>71</v>
@@ -1036,12 +1007,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5">
         <v>76</v>
@@ -1056,12 +1027,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5">
         <v>81</v>
@@ -1076,12 +1047,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5">
         <v>87</v>
@@ -1094,12 +1065,12 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5">
         <v>999</v>
@@ -1114,7 +1085,7 @@
         <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1145,25 +1116,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -1178,16 +1149,16 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1195,11 +1166,11 @@
       <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="b">
+      <c r="G2" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1217,16 +1188,16 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
         <v>11</v>
@@ -1234,35 +1205,35 @@
       <c r="F3" s="5">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="b">
+      <c r="G3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1272,16 +1243,16 @@
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5">
         <v>14</v>
@@ -1289,39 +1260,39 @@
       <c r="F4" s="5">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="b">
+      <c r="G4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1329,16 +1300,16 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5">
         <v>16</v>
@@ -1346,39 +1317,39 @@
       <c r="F5" s="5">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="b">
+      <c r="G5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1386,16 +1357,16 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5">
         <v>18</v>
@@ -1403,58 +1374,58 @@
       <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="G6" s="9" t="b">
+      <c r="G6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
         <v>21</v>
@@ -1462,58 +1433,58 @@
       <c r="F7" s="5">
         <v>999</v>
       </c>
-      <c r="G7" s="9" t="b">
+      <c r="G7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5">
         <v>30</v>
@@ -1521,58 +1492,58 @@
       <c r="F8" s="5">
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="b">
+      <c r="G8" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5">
         <v>35</v>
@@ -1580,58 +1551,58 @@
       <c r="F9" s="5">
         <v>39</v>
       </c>
-      <c r="G9" s="9" t="b">
+      <c r="G9" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5">
         <v>40</v>
@@ -1639,42 +1610,42 @@
       <c r="F10" s="5">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="b">
+      <c r="G10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -1687,10 +1658,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>45</v>
@@ -1698,58 +1669,58 @@
       <c r="F11" s="5">
         <v>49</v>
       </c>
-      <c r="G11" s="9" t="b">
+      <c r="G11" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -1757,58 +1728,58 @@
       <c r="F12" s="5">
         <v>54</v>
       </c>
-      <c r="G12" s="9" t="b">
+      <c r="G12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5">
         <v>55</v>
@@ -1816,58 +1787,58 @@
       <c r="F13" s="5">
         <v>59</v>
       </c>
-      <c r="G13" s="9" t="b">
+      <c r="G13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5">
         <v>60</v>
@@ -1875,58 +1846,58 @@
       <c r="F14" s="5">
         <v>64</v>
       </c>
-      <c r="G14" s="9" t="b">
+      <c r="G14" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E15" s="5">
         <v>65</v>
@@ -1934,58 +1905,58 @@
       <c r="F15" s="5">
         <v>69</v>
       </c>
-      <c r="G15" s="9" t="b">
+      <c r="G15" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P15" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5">
         <v>70</v>
@@ -1993,58 +1964,58 @@
       <c r="F16" s="5">
         <v>74</v>
       </c>
-      <c r="G16" s="9" t="b">
+      <c r="G16" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E17" s="5">
         <v>75</v>
@@ -2052,58 +2023,58 @@
       <c r="F17" s="5">
         <v>79</v>
       </c>
-      <c r="G17" s="9" t="b">
+      <c r="G17" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E18" s="5">
         <v>80</v>
@@ -2111,58 +2082,58 @@
       <c r="F18" s="5">
         <v>999</v>
       </c>
-      <c r="G18" s="9" t="b">
+      <c r="G18" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5">
         <v>70</v>
@@ -2170,95 +2141,89 @@
       <c r="F19" s="5">
         <v>999</v>
       </c>
-      <c r="G19" s="9" t="b">
+      <c r="G19" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F20" s="5">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
       <c r="J20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2267,242 +2232,242 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E21" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="b">
+        <v>999</v>
+      </c>
+      <c r="G21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O21" s="7"/>
       <c r="P21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E22" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>17</v>
-      </c>
-      <c r="G22" s="9" t="b">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E23" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5">
-        <v>20</v>
-      </c>
-      <c r="G23" s="9" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G23" s="8" t="b">
+        <v>0</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E24" s="5">
         <v>15</v>
       </c>
       <c r="F24" s="5">
-        <v>999</v>
-      </c>
-      <c r="G24" s="9" t="b">
+        <v>20</v>
+      </c>
+      <c r="G24" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E25" s="5">
         <v>15</v>
@@ -2510,52 +2475,58 @@
       <c r="F25" s="5">
         <v>999</v>
       </c>
-      <c r="G25" s="9" t="b">
-        <v>0</v>
+      <c r="G25" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="7"/>
       <c r="P25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q25" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R25" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -2563,60 +2534,60 @@
       <c r="F26" s="5">
         <v>999</v>
       </c>
-      <c r="G26" s="9" t="b">
+      <c r="G26" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="P26" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -2624,11 +2595,11 @@
       <c r="F27" s="5">
         <v>10</v>
       </c>
-      <c r="G27" s="9" t="b">
+      <c r="G27" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2644,18 +2615,18 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5">
         <v>11</v>
@@ -2663,35 +2634,35 @@
       <c r="F28" s="5">
         <v>13</v>
       </c>
-      <c r="G28" s="9" t="b">
+      <c r="G28" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -2699,18 +2670,18 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E29" s="5">
         <v>14</v>
@@ -2718,56 +2689,56 @@
       <c r="F29" s="5">
         <v>15</v>
       </c>
-      <c r="G29" s="9" t="b">
+      <c r="G29" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5">
         <v>16</v>
@@ -2775,56 +2746,56 @@
       <c r="F30" s="5">
         <v>17</v>
       </c>
-      <c r="G30" s="9" t="b">
+      <c r="G30" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5">
         <v>18</v>
@@ -2832,7 +2803,7 @@
       <c r="F31" s="5">
         <v>20</v>
       </c>
-      <c r="G31" s="9" t="b">
+      <c r="G31" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="7"/>
@@ -2840,48 +2811,48 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E32" s="5">
         <v>21</v>
@@ -2889,7 +2860,7 @@
       <c r="F32" s="5">
         <v>99</v>
       </c>
-      <c r="G32" s="9" t="b">
+      <c r="G32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="7"/>
@@ -2897,48 +2868,48 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E33" s="5">
         <v>30</v>
@@ -2946,7 +2917,7 @@
       <c r="F33" s="5">
         <v>34</v>
       </c>
-      <c r="G33" s="9" t="b">
+      <c r="G33" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H33" s="7"/>
@@ -2954,48 +2925,48 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5">
         <v>35</v>
@@ -3003,7 +2974,7 @@
       <c r="F34" s="5">
         <v>39</v>
       </c>
-      <c r="G34" s="9" t="b">
+      <c r="G34" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H34" s="7"/>
@@ -3011,48 +2982,48 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E35" s="5">
         <v>40</v>
@@ -3060,7 +3031,7 @@
       <c r="F35" s="5">
         <v>44</v>
       </c>
-      <c r="G35" s="9" t="b">
+      <c r="G35" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="7"/>
@@ -3068,48 +3039,48 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E36" s="5">
         <v>45</v>
@@ -3117,7 +3088,7 @@
       <c r="F36" s="5">
         <v>49</v>
       </c>
-      <c r="G36" s="9" t="b">
+      <c r="G36" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H36" s="7"/>
@@ -3125,48 +3096,48 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E37" s="5">
         <v>50</v>
@@ -3174,7 +3145,7 @@
       <c r="F37" s="5">
         <v>54</v>
       </c>
-      <c r="G37" s="9" t="b">
+      <c r="G37" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="7"/>
@@ -3182,48 +3153,48 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E38" s="5">
         <v>55</v>
@@ -3231,7 +3202,7 @@
       <c r="F38" s="5">
         <v>59</v>
       </c>
-      <c r="G38" s="9" t="b">
+      <c r="G38" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="7"/>
@@ -3239,48 +3210,48 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E39" s="5">
         <v>60</v>
@@ -3288,7 +3259,7 @@
       <c r="F39" s="5">
         <v>64</v>
       </c>
-      <c r="G39" s="9" t="b">
+      <c r="G39" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="7"/>
@@ -3296,48 +3267,48 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E40" s="5">
         <v>65</v>
@@ -3345,7 +3316,7 @@
       <c r="F40" s="5">
         <v>69</v>
       </c>
-      <c r="G40" s="9" t="b">
+      <c r="G40" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H40" s="7"/>
@@ -3353,48 +3324,48 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E41" s="5">
         <v>70</v>
@@ -3402,7 +3373,7 @@
       <c r="F41" s="5">
         <v>74</v>
       </c>
-      <c r="G41" s="9" t="b">
+      <c r="G41" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H41" s="7"/>
@@ -3410,48 +3381,48 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E42" s="5">
         <v>75</v>
@@ -3459,7 +3430,7 @@
       <c r="F42" s="5">
         <v>79</v>
       </c>
-      <c r="G42" s="9" t="b">
+      <c r="G42" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H42" s="7"/>
@@ -3467,34 +3438,34 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -3505,10 +3476,10 @@
         <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E43" s="5">
         <v>80</v>
@@ -3516,7 +3487,7 @@
       <c r="F43" s="5">
         <v>999</v>
       </c>
-      <c r="G43" s="9" t="b">
+      <c r="G43" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="7"/>
@@ -3524,48 +3495,48 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -3573,35 +3544,35 @@
       <c r="F44" s="5">
         <v>12</v>
       </c>
-      <c r="G44" s="9" t="b">
+      <c r="G44" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
@@ -3611,16 +3582,16 @@
     </row>
     <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E45" s="5">
         <v>13</v>
@@ -3628,56 +3599,56 @@
       <c r="F45" s="5">
         <v>17</v>
       </c>
-      <c r="G45" s="9" t="b">
+      <c r="G45" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="U45" s="7"/>
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E46" s="5">
         <v>15</v>
@@ -3685,7 +3656,7 @@
       <c r="F46" s="5">
         <v>17</v>
       </c>
-      <c r="G46" s="9" t="b">
+      <c r="G46" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H46" s="7"/>
@@ -3693,22 +3664,22 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -3717,16 +3688,16 @@
     </row>
     <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E47" s="5">
         <v>15</v>
@@ -3734,7 +3705,7 @@
       <c r="F47" s="5">
         <v>20</v>
       </c>
-      <c r="G47" s="9" t="b">
+      <c r="G47" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H47" s="7"/>
@@ -3742,44 +3713,44 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q47" s="7"/>
       <c r="R47" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E48" s="5">
         <v>15</v>
@@ -3787,7 +3758,7 @@
       <c r="F48" s="5">
         <v>999</v>
       </c>
-      <c r="G48" s="9" t="b">
+      <c r="G48" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H48" s="7"/>
@@ -3795,48 +3766,48 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E49" s="5">
         <v>15</v>
@@ -3844,7 +3815,7 @@
       <c r="F49" s="5">
         <v>999</v>
       </c>
-      <c r="G49" s="9" t="b">
+      <c r="G49" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="7"/>
@@ -3853,41 +3824,41 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q49" s="7"/>
       <c r="R49" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E50" s="5">
         <v>0</v>
@@ -3895,50 +3866,50 @@
       <c r="F50" s="5">
         <v>999</v>
       </c>
-      <c r="G50" s="9" t="b">
+      <c r="G50" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3947,570 +3918,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -14,18 +14,33 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="76">
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>max_bw</t>
+  </si>
+  <si>
     <t>prefix</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
+    <t>WR_SR</t>
+  </si>
+  <si>
+    <t>WR_JR</t>
+  </si>
+  <si>
+    <t>WR_YTH</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
@@ -38,6 +53,12 @@
     <t>#default bw categories</t>
   </si>
   <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>U10</t>
   </si>
   <si>
@@ -47,33 +68,12 @@
     <t>F</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
     <t>F999</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>max_bw</t>
-  </si>
-  <si>
-    <t>WR_SR</t>
-  </si>
-  <si>
-    <t>WR_JR</t>
-  </si>
-  <si>
-    <t>WR_YTH</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
     <t>U13</t>
   </si>
   <si>
@@ -104,6 +104,12 @@
     <t>U15</t>
   </si>
   <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
     <t>F76</t>
   </si>
   <si>
@@ -113,25 +119,40 @@
     <t>U17</t>
   </si>
   <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M55</t>
   </si>
   <si>
     <t>U20</t>
   </si>
   <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
     <t>F87</t>
   </si>
   <si>
+    <t>M73</t>
+  </si>
+  <si>
     <t>O21</t>
   </si>
   <si>
     <t>SR</t>
   </si>
   <si>
-    <t>M45</t>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M89</t>
   </si>
   <si>
     <t>F30</t>
@@ -140,48 +161,30 @@
     <t>MASTERS</t>
   </si>
   <si>
-    <t>M49</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
-    <t>M73</t>
-  </si>
-  <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>M89</t>
-  </si>
-  <si>
     <t>M96</t>
   </si>
   <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M999</t>
+  </si>
+  <si>
+    <t>M999 is always used as the last category in an age group</t>
+  </si>
+  <si>
     <t>F50</t>
   </si>
   <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M109</t>
-  </si>
-  <si>
-    <t>M999</t>
+    <t>F999 is always used as the last category in an age group</t>
   </si>
   <si>
     <t>F60</t>
   </si>
   <si>
-    <t>M999 is always used as the last category in an age group</t>
-  </si>
-  <si>
     <t>F65</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>F70+</t>
-  </si>
-  <si>
-    <t>F999 is always used as the last category in an age group</t>
   </si>
   <si>
     <t>YTH</t>
@@ -263,15 +263,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -314,29 +314,29 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -563,31 +563,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6">
         <v>35.0</v>
@@ -596,15 +596,15 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="H2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
         <v>40.0</v>
@@ -613,15 +613,15 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="H3" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6">
         <v>45.0</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>49.0</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>55.0</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6">
         <v>61.0</v>
@@ -689,10 +689,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>67.0</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6">
         <v>73.0</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>81.0</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>89.0</v>
@@ -772,7 +772,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
         <v>96.0</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
         <v>102.0</v>
@@ -809,10 +809,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
         <v>109.0</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6">
         <v>999.0</v>
@@ -845,7 +845,7 @@
         <v>396.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -853,7 +853,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6">
         <v>35.0</v>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6">
         <v>40.0</v>
@@ -883,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6">
         <v>45.0</v>
@@ -901,7 +901,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6">
         <v>49.0</v>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6">
         <v>55.0</v>
@@ -941,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6">
         <v>59.0</v>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C22" s="6">
         <v>64.0</v>
@@ -981,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="6">
         <v>71.0</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C24" s="6">
         <v>76.0</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C25" s="6">
         <v>81.0</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C26" s="6">
         <v>87.0</v>
@@ -1056,10 +1056,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C27" s="6">
         <v>999.0</v>
@@ -1074,7 +1074,7 @@
         <v>255.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1098,53 +1098,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6">
         <v>0.0</v>
@@ -1152,11 +1152,11 @@
       <c r="F2" s="6">
         <v>10.0</v>
       </c>
-      <c r="G2" s="7" t="b">
-        <v>1</v>
+      <c r="G2" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -1176,14 +1176,14 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="6">
         <v>11.0</v>
@@ -1191,8 +1191,8 @@
       <c r="F3" s="6">
         <v>13.0</v>
       </c>
-      <c r="G3" s="7" t="b">
-        <v>1</v>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>21</v>
@@ -1219,7 +1219,7 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
@@ -1231,14 +1231,14 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6">
         <v>14.0</v>
@@ -1246,8 +1246,8 @@
       <c r="F4" s="6">
         <v>15.0</v>
       </c>
-      <c r="G4" s="7" t="b">
-        <v>1</v>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="1" t="s">
@@ -1272,13 +1272,13 @@
         <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
@@ -1286,16 +1286,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6">
         <v>16.0</v>
@@ -1303,8 +1303,8 @@
       <c r="F5" s="6">
         <v>17.0</v>
       </c>
-      <c r="G5" s="7" t="b">
-        <v>1</v>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="1" t="s">
@@ -1329,13 +1329,13 @@
         <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6">
         <v>18.0</v>
@@ -1360,8 +1360,8 @@
       <c r="F6" s="6">
         <v>20.0</v>
       </c>
-      <c r="G6" s="7" t="b">
-        <v>1</v>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="1" t="s">
@@ -1386,32 +1386,32 @@
         <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
         <v>21.0</v>
@@ -1419,8 +1419,8 @@
       <c r="F7" s="6">
         <v>999.0</v>
       </c>
-      <c r="G7" s="7" t="b">
-        <v>1</v>
+      <c r="G7" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="1" t="s">
@@ -1445,32 +1445,32 @@
         <v>28</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6">
         <v>30.0</v>
@@ -1478,7 +1478,7 @@
       <c r="F8" s="6">
         <v>34.0</v>
       </c>
-      <c r="G8" s="7" t="b">
+      <c r="G8" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="8"/>
@@ -1504,16 +1504,16 @@
         <v>28</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
@@ -1522,14 +1522,14 @@
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6">
         <v>35.0</v>
@@ -1537,7 +1537,7 @@
       <c r="F9" s="6">
         <v>39.0</v>
       </c>
-      <c r="G9" s="7" t="b">
+      <c r="G9" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H9" s="8"/>
@@ -1563,16 +1563,16 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
@@ -1581,14 +1581,14 @@
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E10" s="6">
         <v>40.0</v>
@@ -1596,7 +1596,7 @@
       <c r="F10" s="6">
         <v>44.0</v>
       </c>
-      <c r="G10" s="7" t="b">
+      <c r="G10" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -1622,16 +1622,16 @@
         <v>28</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
@@ -1640,14 +1640,14 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6">
         <v>45.0</v>
@@ -1655,7 +1655,7 @@
       <c r="F11" s="6">
         <v>49.0</v>
       </c>
-      <c r="G11" s="7" t="b">
+      <c r="G11" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -1681,32 +1681,32 @@
         <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" s="6">
         <v>50.0</v>
@@ -1714,7 +1714,7 @@
       <c r="F12" s="6">
         <v>54.0</v>
       </c>
-      <c r="G12" s="7" t="b">
+      <c r="G12" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -1740,16 +1740,16 @@
         <v>28</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
@@ -1758,14 +1758,14 @@
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E13" s="6">
         <v>55.0</v>
@@ -1773,7 +1773,7 @@
       <c r="F13" s="6">
         <v>59.0</v>
       </c>
-      <c r="G13" s="7" t="b">
+      <c r="G13" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="8"/>
@@ -1799,32 +1799,32 @@
         <v>28</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6">
         <v>60.0</v>
@@ -1832,7 +1832,7 @@
       <c r="F14" s="6">
         <v>64.0</v>
       </c>
-      <c r="G14" s="7" t="b">
+      <c r="G14" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -1858,32 +1858,32 @@
         <v>28</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6">
         <v>65.0</v>
@@ -1891,7 +1891,7 @@
       <c r="F15" s="6">
         <v>69.0</v>
       </c>
-      <c r="G15" s="7" t="b">
+      <c r="G15" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
@@ -1917,32 +1917,32 @@
         <v>28</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E16" s="6">
         <v>70.0</v>
@@ -1950,7 +1950,7 @@
       <c r="F16" s="6">
         <v>74.0</v>
       </c>
-      <c r="G16" s="7" t="b">
+      <c r="G16" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -1976,32 +1976,32 @@
         <v>28</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6">
         <v>75.0</v>
@@ -2009,7 +2009,7 @@
       <c r="F17" s="6">
         <v>79.0</v>
       </c>
-      <c r="G17" s="7" t="b">
+      <c r="G17" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
@@ -2035,32 +2035,32 @@
         <v>28</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6">
         <v>80.0</v>
@@ -2068,7 +2068,7 @@
       <c r="F18" s="6">
         <v>999.0</v>
       </c>
-      <c r="G18" s="7" t="b">
+      <c r="G18" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -2094,32 +2094,32 @@
         <v>28</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6">
         <v>70.0</v>
@@ -2127,7 +2127,7 @@
       <c r="F19" s="6">
         <v>999.0</v>
       </c>
-      <c r="G19" s="7" t="b">
+      <c r="G19" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -2153,16 +2153,16 @@
         <v>28</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T19" s="8"/>
       <c r="U19" s="8"/>
@@ -2171,14 +2171,14 @@
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="6">
         <v>13.0</v>
@@ -2186,7 +2186,7 @@
       <c r="F20" s="6">
         <v>17.0</v>
       </c>
-      <c r="G20" s="7" t="b">
+      <c r="G20" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -2212,16 +2212,16 @@
         <v>28</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
@@ -2230,14 +2230,14 @@
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="6">
         <v>15.0</v>
@@ -2245,8 +2245,8 @@
       <c r="F21" s="6">
         <v>20.0</v>
       </c>
-      <c r="G21" s="7" t="b">
-        <v>1</v>
+      <c r="G21" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="1" t="s">
@@ -2271,32 +2271,32 @@
         <v>28</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="6">
         <v>15.0</v>
@@ -2304,8 +2304,8 @@
       <c r="F22" s="6">
         <v>999.0</v>
       </c>
-      <c r="G22" s="7" t="b">
-        <v>1</v>
+      <c r="G22" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="1" t="s">
@@ -2330,16 +2330,16 @@
         <v>28</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
@@ -2348,14 +2348,14 @@
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="6">
         <v>0.0</v>
@@ -2363,8 +2363,8 @@
       <c r="F23" s="6">
         <v>999.0</v>
       </c>
-      <c r="G23" s="7" t="b">
-        <v>0</v>
+      <c r="G23" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>21</v>
@@ -2391,32 +2391,32 @@
         <v>28</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" s="6">
         <v>0.0</v>
@@ -2424,11 +2424,11 @@
       <c r="F24" s="6">
         <v>10.0</v>
       </c>
-      <c r="G24" s="7" t="b">
-        <v>1</v>
+      <c r="G24" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2448,14 +2448,14 @@
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E25" s="6">
         <v>11.0</v>
@@ -2463,35 +2463,35 @@
       <c r="F25" s="6">
         <v>13.0</v>
       </c>
-      <c r="G25" s="7" t="b">
-        <v>1</v>
+      <c r="G25" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="N25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -2503,14 +2503,14 @@
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6">
         <v>14.0</v>
@@ -2518,56 +2518,56 @@
       <c r="F26" s="6">
         <v>15.0</v>
       </c>
-      <c r="G26" s="7" t="b">
-        <v>1</v>
+      <c r="G26" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27" s="6">
         <v>16.0</v>
@@ -2575,56 +2575,56 @@
       <c r="F27" s="6">
         <v>17.0</v>
       </c>
-      <c r="G27" s="7" t="b">
-        <v>1</v>
+      <c r="G27" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E28" s="6">
         <v>18.0</v>
@@ -2632,56 +2632,56 @@
       <c r="F28" s="6">
         <v>20.0</v>
       </c>
-      <c r="G28" s="7" t="b">
-        <v>1</v>
+      <c r="G28" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E29" s="6">
         <v>21.0</v>
@@ -2689,56 +2689,56 @@
       <c r="F29" s="6">
         <v>99.0</v>
       </c>
-      <c r="G29" s="7" t="b">
-        <v>1</v>
+      <c r="G29" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E30" s="6">
         <v>30.0</v>
@@ -2746,7 +2746,7 @@
       <c r="F30" s="6">
         <v>34.0</v>
       </c>
-      <c r="G30" s="7" t="b">
+      <c r="G30" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H30" s="8"/>
@@ -2754,48 +2754,48 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="U30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E31" s="6">
         <v>35.0</v>
@@ -2803,7 +2803,7 @@
       <c r="F31" s="6">
         <v>39.0</v>
       </c>
-      <c r="G31" s="7" t="b">
+      <c r="G31" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H31" s="8"/>
@@ -2811,48 +2811,48 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6">
         <v>40.0</v>
@@ -2860,7 +2860,7 @@
       <c r="F32" s="6">
         <v>44.0</v>
       </c>
-      <c r="G32" s="7" t="b">
+      <c r="G32" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H32" s="8"/>
@@ -2868,48 +2868,48 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E33" s="6">
         <v>45.0</v>
@@ -2917,7 +2917,7 @@
       <c r="F33" s="6">
         <v>49.0</v>
       </c>
-      <c r="G33" s="7" t="b">
+      <c r="G33" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H33" s="8"/>
@@ -2925,48 +2925,48 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" s="6">
         <v>50.0</v>
@@ -2974,7 +2974,7 @@
       <c r="F34" s="6">
         <v>54.0</v>
       </c>
-      <c r="G34" s="7" t="b">
+      <c r="G34" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H34" s="8"/>
@@ -2982,48 +2982,48 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E35" s="6">
         <v>55.0</v>
@@ -3031,7 +3031,7 @@
       <c r="F35" s="6">
         <v>59.0</v>
       </c>
-      <c r="G35" s="7" t="b">
+      <c r="G35" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H35" s="8"/>
@@ -3039,48 +3039,48 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E36" s="6">
         <v>60.0</v>
@@ -3088,7 +3088,7 @@
       <c r="F36" s="6">
         <v>64.0</v>
       </c>
-      <c r="G36" s="7" t="b">
+      <c r="G36" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H36" s="8"/>
@@ -3096,48 +3096,48 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="U36" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E37" s="6">
         <v>65.0</v>
@@ -3145,7 +3145,7 @@
       <c r="F37" s="6">
         <v>69.0</v>
       </c>
-      <c r="G37" s="7" t="b">
+      <c r="G37" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H37" s="8"/>
@@ -3153,48 +3153,48 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="U37" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E38" s="6">
         <v>70.0</v>
@@ -3202,7 +3202,7 @@
       <c r="F38" s="6">
         <v>74.0</v>
       </c>
-      <c r="G38" s="7" t="b">
+      <c r="G38" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H38" s="8"/>
@@ -3210,48 +3210,48 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="U38" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E39" s="6">
         <v>75.0</v>
@@ -3259,7 +3259,7 @@
       <c r="F39" s="6">
         <v>79.0</v>
       </c>
-      <c r="G39" s="7" t="b">
+      <c r="G39" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H39" s="8"/>
@@ -3267,48 +3267,48 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="U39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E40" s="6">
         <v>80.0</v>
@@ -3316,7 +3316,7 @@
       <c r="F40" s="6">
         <v>999.0</v>
       </c>
-      <c r="G40" s="7" t="b">
+      <c r="G40" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H40" s="8"/>
@@ -3324,48 +3324,48 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E41" s="6">
         <v>13.0</v>
@@ -3373,41 +3373,41 @@
       <c r="F41" s="6">
         <v>17.0</v>
       </c>
-      <c r="G41" s="7" t="b">
+      <c r="G41" s="9" t="b">
         <v>0</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U41" s="8"/>
     </row>
@@ -3415,14 +3415,14 @@
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6">
         <v>15.0</v>
@@ -3430,27 +3430,27 @@
       <c r="F42" s="6">
         <v>20.0</v>
       </c>
-      <c r="G42" s="7" t="b">
-        <v>1</v>
+      <c r="G42" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="1" t="s">
@@ -3458,24 +3458,24 @@
       </c>
       <c r="S42" s="8"/>
       <c r="T42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E43" s="6">
         <v>15.0</v>
@@ -3483,56 +3483,56 @@
       <c r="F43" s="6">
         <v>999.0</v>
       </c>
-      <c r="G43" s="7" t="b">
-        <v>1</v>
+      <c r="G43" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6">
         <v>0.0</v>
@@ -3540,50 +3540,50 @@
       <c r="F44" s="6">
         <v>999.0</v>
       </c>
-      <c r="G44" s="7" t="b">
-        <v>0</v>
+      <c r="G44" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="N44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="S44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="U44" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="BW Categories" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BW vs AgeGroups" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="AgeGroups" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,23 +12,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="76">
+  <si>
+    <t>prefix</t>
+  </si>
   <si>
     <t>code</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>#default bw categories</t>
+  </si>
+  <si>
     <t>max_bw</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>WR_SR</t>
   </si>
   <si>
@@ -38,48 +53,78 @@
     <t>WR_YTH</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>#default bw categories</t>
-  </si>
-  <si>
     <t>M35</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
+    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M49</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>M67</t>
+  </si>
+  <si>
+    <t>M73</t>
+  </si>
+  <si>
+    <t>M81</t>
+  </si>
+  <si>
+    <t>M89</t>
+  </si>
+  <si>
+    <t>M96</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M109</t>
+  </si>
+  <si>
+    <t>M999</t>
+  </si>
+  <si>
+    <t>M999 is always used as the last category in an age group</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>U10</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
     <t>F999</t>
   </si>
   <si>
     <t>U13</t>
   </si>
   <si>
-    <t>F35</t>
-  </si>
-  <si>
     <t>F40</t>
   </si>
   <si>
@@ -104,97 +149,52 @@
     <t>U15</t>
   </si>
   <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_junior_world_records_in_Olympic_weightlifting#Men</t>
-  </si>
-  <si>
     <t>F76</t>
   </si>
   <si>
+    <t>U17</t>
+  </si>
+  <si>
     <t>F81</t>
   </si>
   <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>M45</t>
-  </si>
-  <si>
-    <t>M49</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
     <t>U20</t>
   </si>
   <si>
-    <t>M61</t>
-  </si>
-  <si>
-    <t>M67</t>
-  </si>
-  <si>
     <t>F87</t>
   </si>
   <si>
-    <t>M73</t>
-  </si>
-  <si>
     <t>O21</t>
   </si>
   <si>
     <t>SR</t>
   </si>
   <si>
-    <t>M81</t>
-  </si>
-  <si>
-    <t>M89</t>
-  </si>
-  <si>
     <t>F30</t>
   </si>
   <si>
     <t>MASTERS</t>
   </si>
   <si>
-    <t>M96</t>
-  </si>
-  <si>
-    <t>M102</t>
-  </si>
-  <si>
-    <t>M109</t>
-  </si>
-  <si>
-    <t>M999</t>
-  </si>
-  <si>
-    <t>M999 is always used as the last category in an age group</t>
-  </si>
-  <si>
     <t>F50</t>
   </si>
   <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
     <t>F999 is always used as the last category in an age group</t>
-  </si>
-  <si>
-    <t>F60</t>
-  </si>
-  <si>
-    <t>F65</t>
-  </si>
-  <si>
-    <t>F70</t>
-  </si>
-  <si>
-    <t>F75</t>
-  </si>
-  <si>
-    <t>F80</t>
   </si>
   <si>
     <t>F70+</t>
@@ -269,15 +269,15 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -314,32 +314,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,22 +563,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -589,492 +589,492 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>35.0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="H2" s="10" t="s">
-        <v>18</v>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>40.0</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>31</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>45.0</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>49.0</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5">
         <v>221.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>55.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>294.0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>264.0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>248.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>61.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>318.0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>293.0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>272.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>67.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>339.0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>328.0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>299.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>73.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>363.0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>347.0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>306.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>81.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>378.0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>372.0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>327.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>89.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>387.0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>371.0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>357.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>96.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>416.0</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>397.0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>354.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>102.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>412.0</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>392.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>377.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>109.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>435.0</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>417.0</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>999.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>484.0</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>432.0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>396.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5">
         <v>35.0</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
         <v>40.0</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5">
         <v>135.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5">
         <v>45.0</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6">
+      <c r="D18" s="6"/>
+      <c r="E18" s="5">
         <v>179.0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>172.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5">
         <v>49.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>210.0</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>206.0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>190.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5">
         <v>55.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>232.0</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>211.0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>197.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5">
         <v>59.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>237.0</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>228.0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>228.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="6">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
         <v>64.0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>254.0</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>240.0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>222.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5">
         <v>71.0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>267.0</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>252.0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>225.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>76.0</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>274.0</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>259.0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>229.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5">
         <v>81.0</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>283.0</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>260.0</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>231.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5">
         <v>87.0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>294.0</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>269.0</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="6">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5">
         <v>999.0</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>330.0</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>332.0</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>255.0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1098,2267 +1098,2259 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>10.0</v>
       </c>
-      <c r="G2" s="9" t="b">
+      <c r="G2" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5">
         <v>11.0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>13.0</v>
       </c>
-      <c r="G3" s="9" t="b">
+      <c r="G3" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5">
         <v>14.0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>15.0</v>
       </c>
-      <c r="G4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8"/>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
         <v>16.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>17.0</v>
       </c>
-      <c r="G5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="G5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20.0</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>999.0</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>999.0</v>
-      </c>
-      <c r="G7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30.0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>34.0</v>
-      </c>
-      <c r="G8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
         <v>35.0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>39.0</v>
       </c>
-      <c r="G9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5">
         <v>40.0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>44.0</v>
       </c>
-      <c r="G10" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8"/>
+      <c r="G10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5">
         <v>45.0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>49.0</v>
       </c>
-      <c r="G11" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="6">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5">
         <v>50.0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>54.0</v>
       </c>
-      <c r="G12" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="G12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5">
         <v>55.0</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>59.0</v>
       </c>
-      <c r="G13" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5">
         <v>60.0</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>64.0</v>
       </c>
-      <c r="G14" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="G14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="6">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5">
         <v>65.0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>69.0</v>
       </c>
-      <c r="G15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="G15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="6">
+        <v>32</v>
+      </c>
+      <c r="E16" s="5">
         <v>70.0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>74.0</v>
       </c>
-      <c r="G16" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8"/>
+      <c r="G16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5">
         <v>75.0</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>79.0</v>
       </c>
-      <c r="G17" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8"/>
+      <c r="G17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5">
         <v>80.0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>999.0</v>
       </c>
-      <c r="G18" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8"/>
+      <c r="G18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
         <v>70.0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>999.0</v>
       </c>
-      <c r="G19" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="G19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="6">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
         <v>13.0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>17.0</v>
       </c>
-      <c r="G20" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="G20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5">
         <v>15.0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>20.0</v>
       </c>
-      <c r="G21" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
         <v>15.0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>999.0</v>
       </c>
-      <c r="G22" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="6">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5">
         <v>0.0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>999.0</v>
       </c>
-      <c r="G23" s="9" t="b">
+      <c r="G23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>10.0</v>
       </c>
-      <c r="G24" s="9" t="b">
+      <c r="G24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>11.0</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>13.0</v>
       </c>
-      <c r="G25" s="9" t="b">
+      <c r="G25" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>14.0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>15.0</v>
       </c>
-      <c r="G26" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="G26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U26" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>16.0</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>17.0</v>
       </c>
-      <c r="G27" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="G27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U27" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="U27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>18.0</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>20.0</v>
       </c>
-      <c r="G28" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="G28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>21.0</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>99.0</v>
       </c>
-      <c r="G29" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="G29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>30.0</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>34.0</v>
       </c>
-      <c r="G30" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="G30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>35.0</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>39.0</v>
       </c>
-      <c r="G31" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="G31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>40.0</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>44.0</v>
       </c>
-      <c r="G32" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="G32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>45.0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>49.0</v>
       </c>
-      <c r="G33" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="G33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>50.0</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>54.0</v>
       </c>
-      <c r="G34" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="G34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>55.0</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>59.0</v>
       </c>
-      <c r="G35" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="G35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>60.0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>64.0</v>
       </c>
-      <c r="G36" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="G36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>65.0</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>69.0</v>
       </c>
-      <c r="G37" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="G37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>70.0</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>74.0</v>
       </c>
-      <c r="G38" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="G38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>75.0</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>79.0</v>
       </c>
-      <c r="G39" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="G39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
       <c r="L39" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>80.0</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>999.0</v>
       </c>
-      <c r="G40" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="G40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3367,55 +3359,55 @@
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>13.0</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>17.0</v>
       </c>
-      <c r="G41" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="G41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U41" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="U41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3424,52 +3416,56 @@
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>15.0</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>20.0</v>
       </c>
-      <c r="G42" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="G42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
       <c r="L42" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q42" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="R42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S42" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="T42" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>64</v>
@@ -3477,55 +3473,55 @@
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>15.0</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>999.0</v>
       </c>
-      <c r="G43" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="G43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
       <c r="L43" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3534,56 +3530,56 @@
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>0.0</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>999.0</v>
       </c>
-      <c r="G44" s="9" t="b">
+      <c r="G44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/owlcms/src/main/resources/config/AgeGroups.xlsx
+++ b/owlcms/src/main/resources/config/AgeGroups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\main\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58D4D-766D-4C1F-894D-B966761DABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F069AC0-6305-41F3-A213-467391CF2FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="24240" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BW Categories" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="72">
   <si>
     <t>code</t>
   </si>
@@ -194,9 +194,6 @@
     <t>F75</t>
   </si>
   <si>
-    <t>F80</t>
-  </si>
-  <si>
     <t>F999 is always used as the last category in an age group</t>
   </si>
   <si>
@@ -237,6 +234,9 @@
   </si>
   <si>
     <t>M80+</t>
+  </si>
+  <si>
+    <t>F80+</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
         <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1343,9 +1343,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1400,9 +1398,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1457,9 +1453,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1514,9 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1571,9 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1628,9 +1618,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1685,9 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1742,9 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1799,9 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1856,9 +1838,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1913,9 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1970,9 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2008,7 +1984,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
@@ -2027,9 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2039,7 @@
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
@@ -2084,9 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2122,11 +2094,11 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
@@ -2177,11 +2149,11 @@
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>30</v>
@@ -2236,7 +2208,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
@@ -2287,11 +2259,11 @@
     </row>
     <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>30</v>
@@ -2654,7 +2626,7 @@
     </row>
     <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -2874,7 +2846,7 @@
     </row>
     <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
@@ -2984,7 +2956,7 @@
     </row>
     <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
@@ -3039,7 +3011,7 @@
     </row>
     <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
@@ -3094,7 +3066,7 @@
     </row>
     <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
@@ -3149,7 +3121,7 @@
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
@@ -3204,7 +3176,7 @@
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
@@ -3259,11 +3231,11 @@
     </row>
     <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -3314,11 +3286,11 @@
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
@@ -3373,7 +3345,7 @@
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>12</v>
@@ -3424,11 +3396,11 @@
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>12</v>
